--- a/output/HG2A_30s/DropletsSizeScaled.xlsx
+++ b/output/HG2A_30s/DropletsSizeScaled.xlsx
@@ -415,40 +415,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.146636432350718</v>
+        <v>0.1436130007558579</v>
       </c>
       <c r="C2">
-        <v>0.1350466112370874</v>
+        <v>0.1332829428067523</v>
       </c>
       <c r="D2">
-        <v>0.146636432350718</v>
+        <v>0.1421012849584278</v>
       </c>
       <c r="E2">
-        <v>0.1423532375913328</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F2">
-        <v>0.1342907533383724</v>
+        <v>0.1337868480725624</v>
       </c>
       <c r="G2">
-        <v>0.1355505165028975</v>
+        <v>0.1330309901738473</v>
       </c>
       <c r="H2">
         <v>0.217687074829932</v>
       </c>
       <c r="I2">
-        <v>0.2171831695641219</v>
+        <v>0.2151675485008818</v>
       </c>
       <c r="J2">
-        <v>0.2209624590576972</v>
+        <v>0.2204585537918871</v>
       </c>
       <c r="K2">
-        <v>0.2086167800453515</v>
+        <v>0.2078609221466364</v>
       </c>
       <c r="L2">
-        <v>0.2018140589569161</v>
+        <v>0.199798437893676</v>
       </c>
       <c r="M2">
-        <v>0.2020660115898211</v>
+        <v>0.1987906273620559</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -456,40 +456,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1310153691106072</v>
+        <v>0.1295036533131771</v>
       </c>
       <c r="C3">
-        <v>0.1380700428319476</v>
+        <v>0.1352985638699924</v>
       </c>
       <c r="D3">
-        <v>0.1431090954900479</v>
+        <v>0.1405895691609977</v>
       </c>
       <c r="E3">
-        <v>0.1446208112874779</v>
+        <v>0.1443688586545729</v>
       </c>
       <c r="F3">
-        <v>0.1476442428823381</v>
+        <v>0.1468883849836231</v>
       </c>
       <c r="G3">
-        <v>0.1415973796926178</v>
+        <v>0.1398337112622827</v>
       </c>
       <c r="H3">
         <v>0.2076089695137314</v>
       </c>
       <c r="I3">
-        <v>0.2091206853111615</v>
+        <v>0.2093726379440665</v>
       </c>
       <c r="J3">
-        <v>0.2242378432854623</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="K3">
-        <v>0.2111363063744016</v>
+        <v>0.2106324011085916</v>
       </c>
       <c r="L3">
-        <v>0.2144116906021668</v>
+        <v>0.2136558327034518</v>
       </c>
       <c r="M3">
-        <v>0.1937515747039557</v>
+        <v>0.1922398589065256</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -497,40 +497,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1206853111615016</v>
+        <v>0.1201814058956916</v>
       </c>
       <c r="C4">
-        <v>0.1199294532627866</v>
+        <v>0.1209372637944066</v>
       </c>
       <c r="D4">
-        <v>0.1179138321995465</v>
+        <v>0.1186696900982615</v>
       </c>
       <c r="E4">
-        <v>0.1227009322247418</v>
+        <v>0.1211892164273117</v>
       </c>
       <c r="F4">
-        <v>0.1227009322247418</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="G4">
-        <v>0.1234567901234568</v>
+        <v>0.1211892164273117</v>
       </c>
       <c r="H4">
-        <v>0.1700680272108843</v>
+        <v>0.1680524061476442</v>
       </c>
       <c r="I4">
-        <v>0.1708238851095994</v>
+        <v>0.1710758377425044</v>
       </c>
       <c r="J4">
         <v>0.1645250692869741</v>
       </c>
       <c r="K4">
-        <v>0.163265306122449</v>
+        <v>0.1657848324514991</v>
       </c>
       <c r="L4">
-        <v>0.1647770219198791</v>
+        <v>0.162761400856639</v>
       </c>
       <c r="M4">
-        <v>0.1599899218946838</v>
+        <v>0.1569664902998237</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -538,40 +538,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.109347442680776</v>
+        <v>0.1070798689846309</v>
       </c>
       <c r="C5">
-        <v>0.1043083900226757</v>
+        <v>0.09397833207357018</v>
       </c>
       <c r="D5">
-        <v>0.1118669690098262</v>
+        <v>0.109599395313681</v>
       </c>
       <c r="E5">
-        <v>0.1035525321239607</v>
+        <v>0.1055681531872008</v>
       </c>
       <c r="F5">
-        <v>0.1121189216427312</v>
+        <v>0.1126228269085412</v>
       </c>
       <c r="G5">
-        <v>0.108591584782061</v>
+        <v>0.1070798689846309</v>
       </c>
       <c r="H5">
-        <v>0.1587301587301587</v>
+        <v>0.1574703955656337</v>
       </c>
       <c r="I5">
-        <v>0.162761400856639</v>
+        <v>0.1592340639959688</v>
       </c>
       <c r="J5">
-        <v>0.1652809271856891</v>
+        <v>0.163013353489544</v>
       </c>
       <c r="K5">
-        <v>0.1536911060720584</v>
+        <v>0.1544469639707735</v>
       </c>
       <c r="L5">
         <v>0.1552028218694886</v>
       </c>
       <c r="M5">
-        <v>0.1499118165784832</v>
+        <v>0.145628621819098</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -579,40 +579,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1191735953640716</v>
+        <v>0.1194255479969766</v>
       </c>
       <c r="C6">
         <v>0.1121189216427312</v>
       </c>
       <c r="D6">
-        <v>0.1116150163769211</v>
+        <v>0.1121189216427312</v>
       </c>
       <c r="E6">
-        <v>0.1133786848072562</v>
+        <v>0.1138825900730663</v>
       </c>
       <c r="F6">
-        <v>0.1136306374401613</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="G6">
-        <v>0.1043083900226757</v>
+        <v>0.1012849584278156</v>
       </c>
       <c r="H6">
-        <v>0.1685563114134543</v>
+        <v>0.1652809271856891</v>
       </c>
       <c r="I6">
-        <v>0.1693121693121693</v>
+        <v>0.1667926429831192</v>
       </c>
       <c r="J6">
-        <v>0.163517258755354</v>
+        <v>0.1617535903250189</v>
       </c>
       <c r="K6">
-        <v>0.1615016376921139</v>
+        <v>0.1599899218946838</v>
       </c>
       <c r="L6">
-        <v>0.1607457797933988</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="M6">
-        <v>0.1514235323759133</v>
+        <v>0.1494079113126732</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -638,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1370622323003275</v>
+        <v>0.1347946586041824</v>
       </c>
       <c r="I7">
-        <v>0.1403376165280927</v>
+        <v>0.1350466112370874</v>
       </c>
       <c r="J7">
-        <v>0.1524313429075334</v>
+        <v>0.145376669186193</v>
       </c>
       <c r="K7">
-        <v>0.1292517006802721</v>
+        <v>0.1257243638196019</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -661,40 +661,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1325270849080373</v>
+        <v>0.1340388007054674</v>
       </c>
       <c r="C8">
-        <v>0.1340388007054674</v>
+        <v>0.1335348954396574</v>
       </c>
       <c r="D8">
-        <v>0.1337868480725624</v>
+        <v>0.1335348954396574</v>
       </c>
       <c r="E8">
-        <v>0.1350466112370874</v>
+        <v>0.1345427059712774</v>
       </c>
       <c r="F8">
-        <v>0.1383219954648526</v>
+        <v>0.1365583270345175</v>
       </c>
       <c r="G8">
-        <v>0.1340388007054674</v>
+        <v>0.1332829428067523</v>
       </c>
       <c r="H8">
-        <v>0.1917359536407156</v>
+        <v>0.1899722852103805</v>
       </c>
       <c r="I8">
-        <v>0.1846812799193752</v>
+        <v>0.1841773746535651</v>
       </c>
       <c r="J8">
-        <v>0.1728395061728395</v>
+        <v>0.1723356009070295</v>
       </c>
       <c r="K8">
-        <v>0.1647770219198791</v>
+        <v>0.163517258755354</v>
       </c>
       <c r="L8">
-        <v>0.1607457797933988</v>
+        <v>0.1589821113630638</v>
       </c>
       <c r="M8">
-        <v>0.1604938271604938</v>
+        <v>0.1594860166288738</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -702,40 +702,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1063240110859159</v>
+        <v>0.1045603426555807</v>
       </c>
       <c r="C9">
-        <v>0.1295036533131771</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="D9">
-        <v>0.1295036533131771</v>
+        <v>0.1289997480473671</v>
       </c>
       <c r="E9">
-        <v>0.1300075585789871</v>
+        <v>0.1307634164777022</v>
       </c>
       <c r="F9">
-        <v>0.1307634164777022</v>
+        <v>0.1312673217435122</v>
       </c>
       <c r="G9">
-        <v>0.1284958427815571</v>
+        <v>0.1257243638196019</v>
       </c>
       <c r="H9">
         <v>0.1836734693877551</v>
       </c>
       <c r="I9">
-        <v>0.1866969009826153</v>
+        <v>0.1849332325522802</v>
       </c>
       <c r="J9">
-        <v>0.1809019904258</v>
+        <v>0.1791383219954649</v>
       </c>
       <c r="K9">
-        <v>0.1705719324766944</v>
+        <v>0.1690602166792643</v>
       </c>
       <c r="L9">
-        <v>0.1698160745779793</v>
+        <v>0.1672965482489292</v>
       </c>
       <c r="M9">
-        <v>0.1657848324514991</v>
+        <v>0.164273116654069</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -746,37 +746,37 @@
         <v>0.08339632149155958</v>
       </c>
       <c r="C10">
-        <v>0.1113630637440161</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D10">
-        <v>0.1065759637188209</v>
+        <v>0.1063240110859159</v>
       </c>
       <c r="E10">
-        <v>0.108339632149156</v>
+        <v>0.1075837742504409</v>
       </c>
       <c r="F10">
-        <v>0.1121189216427312</v>
+        <v>0.1128747795414462</v>
       </c>
       <c r="G10">
         <v>0.1138825900730663</v>
       </c>
       <c r="H10">
-        <v>0.1594860166288738</v>
+        <v>0.1589821113630638</v>
       </c>
       <c r="I10">
-        <v>0.1514235323759133</v>
+        <v>0.1516754850088183</v>
       </c>
       <c r="J10">
-        <v>0.146384479717813</v>
+        <v>0.1441169060216679</v>
       </c>
       <c r="K10">
-        <v>0.1446208112874779</v>
+        <v>0.145124716553288</v>
       </c>
       <c r="L10">
-        <v>0.1360544217687075</v>
+        <v>0.1365583270345175</v>
       </c>
       <c r="M10">
-        <v>0.1352985638699924</v>
+        <v>0.1340388007054674</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -787,37 +787,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08238851095993953</v>
+        <v>0.08339632149155958</v>
       </c>
       <c r="D11">
         <v>0.09599395313681028</v>
       </c>
       <c r="E11">
-        <v>0.09624590576971528</v>
+        <v>0.09599395313681028</v>
       </c>
       <c r="F11">
-        <v>0.09019904257999496</v>
+        <v>0.09221466364323506</v>
       </c>
       <c r="G11">
-        <v>0.08717561098513479</v>
+        <v>0.08667170571932477</v>
       </c>
       <c r="H11">
-        <v>0.1496598639455782</v>
+        <v>0.1506676744771983</v>
       </c>
       <c r="I11">
-        <v>0.1478961955152431</v>
+        <v>0.1489040060468632</v>
       </c>
       <c r="J11">
-        <v>0.146132527084908</v>
+        <v>0.145376669186193</v>
       </c>
       <c r="K11">
-        <v>0.1413454270597128</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L11">
-        <v>0.1415973796926178</v>
+        <v>0.1408415217939027</v>
       </c>
       <c r="M11">
-        <v>0.1390778533635676</v>
+        <v>0.1388259007306626</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -846,19 +846,19 @@
         <v>0.1441169060216679</v>
       </c>
       <c r="I12">
+        <v>0.1370622323003275</v>
+      </c>
+      <c r="J12">
+        <v>0.1257243638196019</v>
+      </c>
+      <c r="K12">
+        <v>0.1330309901738473</v>
+      </c>
+      <c r="L12">
         <v>0.1365583270345175</v>
       </c>
-      <c r="J12">
-        <v>0.1259763164525069</v>
-      </c>
-      <c r="K12">
-        <v>0.1335348954396574</v>
-      </c>
-      <c r="L12">
-        <v>0.1340388007054674</v>
-      </c>
       <c r="M12">
-        <v>0.1161501637692114</v>
+        <v>0.1164021164021164</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -884,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1244646006550768</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="I13">
-        <v>0.1216931216931217</v>
+        <v>0.1209372637944066</v>
       </c>
       <c r="J13">
-        <v>0.109599395313681</v>
+        <v>0.1101033005794911</v>
       </c>
       <c r="K13">
-        <v>0.1103552532123961</v>
+        <v>0.1131267321743512</v>
       </c>
       <c r="L13">
-        <v>0.09498614260519023</v>
+        <v>0.09549004787100025</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -910,37 +910,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1111111111111111</v>
+        <v>0.1128747795414462</v>
       </c>
       <c r="D14">
-        <v>0.1053162005542958</v>
+        <v>0.1073318216175359</v>
       </c>
       <c r="E14">
-        <v>0.108843537414966</v>
+        <v>0.1106072058453011</v>
       </c>
       <c r="F14">
-        <v>0.1103552532123961</v>
+        <v>0.1108591584782061</v>
       </c>
       <c r="G14">
-        <v>0.1033005794910557</v>
+        <v>0.1035525321239607</v>
       </c>
       <c r="H14">
-        <v>0.1428571428571428</v>
+        <v>0.1423532375913328</v>
       </c>
       <c r="I14">
-        <v>0.1368102796674225</v>
+        <v>0.1385739480977576</v>
       </c>
       <c r="J14">
-        <v>0.1385739480977576</v>
+        <v>0.1403376165280927</v>
       </c>
       <c r="K14">
-        <v>0.1395817586293777</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="L14">
-        <v>0.145628621819098</v>
+        <v>0.145124716553288</v>
       </c>
       <c r="M14">
-        <v>0.1368102796674225</v>
+        <v>0.1365583270345175</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -951,37 +951,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08969513731418494</v>
+        <v>0.08390022675736961</v>
       </c>
       <c r="D15">
+        <v>0.09045099521289998</v>
+      </c>
+      <c r="E15">
+        <v>0.09120685311161501</v>
+      </c>
+      <c r="F15">
         <v>0.09221466364323506</v>
       </c>
-      <c r="E15">
-        <v>0.09599395313681028</v>
-      </c>
-      <c r="F15">
-        <v>0.09145880574452003</v>
-      </c>
       <c r="G15">
-        <v>0.0964978584026203</v>
+        <v>0.09322247417485512</v>
       </c>
       <c r="H15">
-        <v>0.1408415217939027</v>
+        <v>0.1405895691609977</v>
       </c>
       <c r="I15">
-        <v>0.1398337112622827</v>
+        <v>0.1400856638951877</v>
       </c>
       <c r="J15">
-        <v>0.1307634164777022</v>
+        <v>0.1297556059460821</v>
       </c>
       <c r="K15">
-        <v>0.1363063744016125</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="L15">
         <v>0.126480221718317</v>
       </c>
       <c r="M15">
-        <v>0.1383219954648526</v>
+        <v>0.1385739480977576</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -995,34 +995,34 @@
         <v>0.07130259511211892</v>
       </c>
       <c r="D16">
-        <v>0.0707986898463089</v>
+        <v>0.07180650037792895</v>
       </c>
       <c r="E16">
-        <v>0.07382212144116906</v>
+        <v>0.07432602670697909</v>
       </c>
       <c r="F16">
-        <v>0.08465608465608465</v>
+        <v>0.08616780045351474</v>
       </c>
       <c r="G16">
-        <v>0.07407407407407408</v>
+        <v>0.06223230032753842</v>
       </c>
       <c r="H16">
-        <v>0.1171579743008315</v>
+        <v>0.1161501637692114</v>
       </c>
       <c r="I16">
-        <v>0.1111111111111111</v>
+        <v>0.1126228269085412</v>
       </c>
       <c r="J16">
-        <v>0.1138825900730663</v>
+        <v>0.1146384479717813</v>
       </c>
       <c r="K16">
-        <v>0.108591584782061</v>
+        <v>0.109599395313681</v>
       </c>
       <c r="L16">
-        <v>0.109095490047871</v>
+        <v>0.1103552532123961</v>
       </c>
       <c r="M16">
-        <v>0.1111111111111111</v>
+        <v>0.1121189216427312</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06097253716301335</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1048,22 +1048,22 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1126228269085412</v>
+        <v>0.1123708742756362</v>
       </c>
       <c r="I17">
-        <v>0.109095490047871</v>
+        <v>0.109599395313681</v>
       </c>
       <c r="J17">
-        <v>0.1073318216175359</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="K17">
-        <v>0.1043083900226757</v>
+        <v>0.1025447215923406</v>
       </c>
       <c r="L17">
-        <v>0.1027966742252457</v>
+        <v>0.1038044847568657</v>
       </c>
       <c r="M17">
-        <v>0.1060720584530108</v>
+        <v>0.1068279163517259</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1089,22 +1089,22 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.09372637944066516</v>
+        <v>0.09322247417485512</v>
       </c>
       <c r="I18">
-        <v>0.09574200050390526</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J18">
-        <v>0.1002771478961955</v>
+        <v>0.09926933736457547</v>
       </c>
       <c r="K18">
-        <v>0.09347442680776015</v>
+        <v>0.09322247417485512</v>
       </c>
       <c r="L18">
-        <v>0.09674981103552531</v>
+        <v>0.09624590576971528</v>
       </c>
       <c r="M18">
-        <v>0.09498614260519023</v>
+        <v>0.09624590576971528</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1130,22 +1130,22 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.06399596875787351</v>
+        <v>0.06475182665658856</v>
       </c>
       <c r="I19">
-        <v>0.06223230032753842</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="J19">
-        <v>0.06651549508692366</v>
+        <v>0.06500377928949357</v>
       </c>
       <c r="K19">
-        <v>0.06525573192239859</v>
+        <v>0.06752330561854371</v>
       </c>
       <c r="L19">
-        <v>0.07558578987150416</v>
+        <v>0.07583774250440917</v>
       </c>
       <c r="M19">
-        <v>0.08062484252960443</v>
+        <v>0.0818846056941295</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1156,37 +1156,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08087679516250944</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="D20">
-        <v>0.1121189216427312</v>
+        <v>0.1131267321743512</v>
       </c>
       <c r="E20">
-        <v>0.1065759637188209</v>
+        <v>0.1063240110859159</v>
       </c>
       <c r="F20">
-        <v>0.1209372637944066</v>
+        <v>0.1201814058956916</v>
       </c>
       <c r="G20">
-        <v>0.1153943058704963</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="H20">
-        <v>0.1864449483497102</v>
+        <v>0.1884605694129504</v>
       </c>
       <c r="I20">
-        <v>0.1919879062736206</v>
+        <v>0.1909800957420005</v>
       </c>
       <c r="J20">
-        <v>0.1955152431342908</v>
+        <v>0.1950113378684807</v>
       </c>
       <c r="K20">
-        <v>0.200554295792391</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="L20">
-        <v>0.2063492063492063</v>
+        <v>0.2078609221466364</v>
       </c>
       <c r="M20">
-        <v>0.1962711010330058</v>
+        <v>0.1980347694633409</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1197,37 +1197,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06122448979591837</v>
+        <v>0.06147644242882338</v>
       </c>
       <c r="D21">
-        <v>0.1025447215923406</v>
+        <v>0.1027966742252457</v>
       </c>
       <c r="E21">
-        <v>0.1128747795414462</v>
+        <v>0.1133786848072562</v>
       </c>
       <c r="F21">
-        <v>0.1360544217687075</v>
+        <v>0.1365583270345175</v>
       </c>
       <c r="G21">
-        <v>0.1526832955404384</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="H21">
-        <v>0.2340639959687578</v>
+        <v>0.2348198538674729</v>
       </c>
       <c r="I21">
-        <v>0.2194507432602671</v>
+        <v>0.218442932728647</v>
       </c>
       <c r="J21">
-        <v>0.217939027462837</v>
+        <v>0.217687074829932</v>
       </c>
       <c r="K21">
-        <v>0.2111363063744016</v>
+        <v>0.2101284958427815</v>
       </c>
       <c r="L21">
-        <v>0.2333081380700428</v>
+        <v>0.2338120433358528</v>
       </c>
       <c r="M21">
-        <v>0.2408667170571932</v>
+        <v>0.2413706223230033</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1235,40 +1235,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0818846056941295</v>
+        <v>0.08112874779541446</v>
       </c>
       <c r="C22">
-        <v>0.05568153187200806</v>
+        <v>0.05467372134038801</v>
       </c>
       <c r="D22">
-        <v>0.08944318468127993</v>
+        <v>0.08868732678256487</v>
       </c>
       <c r="E22">
-        <v>0.1043083900226757</v>
+        <v>0.1048122952884858</v>
       </c>
       <c r="F22">
-        <v>0.1156462585034014</v>
+        <v>0.1161501637692114</v>
       </c>
       <c r="G22">
-        <v>0.1158982111363064</v>
+        <v>0.1169060216679264</v>
       </c>
       <c r="H22">
-        <v>0.1889644746787604</v>
+        <v>0.1897203325774754</v>
       </c>
       <c r="I22">
-        <v>0.18190980095742</v>
+        <v>0.181657848324515</v>
       </c>
       <c r="J22">
-        <v>0.1521793902746284</v>
+        <v>0.1516754850088183</v>
       </c>
       <c r="K22">
-        <v>0.127236079617032</v>
+        <v>0.127991937515747</v>
       </c>
       <c r="L22">
-        <v>0.1257243638196019</v>
+        <v>0.1249685059208869</v>
       </c>
       <c r="M22">
-        <v>0.2055933484504913</v>
+        <v>0.2030738221214412</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1279,37 +1279,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05593348450491308</v>
+        <v>0.0564373897707231</v>
       </c>
       <c r="D23">
-        <v>0.05593348450491308</v>
+        <v>0.05668934240362812</v>
       </c>
       <c r="E23">
-        <v>0.05668934240362812</v>
+        <v>0.05769715293524817</v>
       </c>
       <c r="F23">
-        <v>0.06072058453010834</v>
+        <v>0.06046863189720332</v>
       </c>
       <c r="G23">
         <v>0.08314436885865457</v>
       </c>
       <c r="H23">
-        <v>0.1708238851095994</v>
+        <v>0.1698160745779793</v>
       </c>
       <c r="I23">
-        <v>0.1534391534391534</v>
+        <v>0.1519274376417233</v>
       </c>
       <c r="J23">
-        <v>0.1781305114638448</v>
+        <v>0.1748551272360796</v>
       </c>
       <c r="K23">
-        <v>0.1234567901234568</v>
+        <v>0.1242126480221718</v>
       </c>
       <c r="L23">
-        <v>0.1438649533887629</v>
+        <v>0.1418493323255228</v>
       </c>
       <c r="M23">
-        <v>0.2491811539430587</v>
+        <v>0.2474174855127236</v>
       </c>
     </row>
   </sheetData>
